--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_6.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9895646952332737</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7776591008998206</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D2" t="n">
-        <v>0.988940941164716</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9341443921566304</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9696599650278191</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06978093102525845</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H2" t="n">
-        <v>1.486794616068603</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01204237563688751</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0390533278472006</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02554782363967021</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L2" t="n">
-        <v>0.55250040833738</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2641608052404036</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N2" t="n">
-        <v>1.004393812533358</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O2" t="n">
-        <v>0.275406677607739</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P2" t="n">
-        <v>167.3247890020375</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.0537308163617</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_1</t>
+          <t>model_24_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9898012543023191</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7768966123693077</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9672695039317432</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8682618747104642</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9324485744058196</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06819905944129778</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H3" t="n">
-        <v>1.491893380383079</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03564072985831954</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07812261347802307</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0568816716681713</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5831260928891231</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2611494963450969</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N3" t="n">
-        <v>1.004294208714813</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2722671710584904</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P3" t="n">
-        <v>167.3706490108223</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q3" t="n">
-        <v>266.0995908251465</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_2</t>
+          <t>model_24_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9892939316221532</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7754807381613628</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9384350444889705</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7860948324659892</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8848714906202485</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07159152853957398</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H4" t="n">
-        <v>1.501361337731109</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06703900678841518</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1268488578191318</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0969439506654791</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6094258830276506</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2675659330699146</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N4" t="n">
-        <v>1.004507818264357</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2789567687785385</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P4" t="n">
-        <v>167.2735570570038</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q4" t="n">
-        <v>266.002498871328</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_3</t>
+          <t>model_24_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9882736192037085</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7736299825610682</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9053682876054211</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6942282616237805</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F5" t="n">
-        <v>0.831142249080682</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07841436237982012</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H5" t="n">
-        <v>1.513737348952224</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1030458961102146</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1813270628921423</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1421866535300177</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6323379913468061</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2800256459323326</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N5" t="n">
-        <v>1.004937423493175</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2919469174126711</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P5" t="n">
-        <v>167.0914963495671</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q5" t="n">
-        <v>265.8204381638913</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_4</t>
+          <t>model_24_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9869092691243811</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7715045730056089</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8701024115455835</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5973362573949007</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7742218697931486</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0875377776425361</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H6" t="n">
-        <v>1.527949972436191</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1414474394062428</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2387854226406776</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1901164536398201</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6524752732842873</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2958678381347593</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N6" t="n">
-        <v>1.005511886684471</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3084635445350138</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P6" t="n">
-        <v>166.8713696686146</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q6" t="n">
-        <v>265.6003114829388</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_5</t>
+          <t>model_24_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9853258031322192</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7692228192186572</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8340593018315328</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.498761424944326</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7162062225921526</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09812642202331372</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H7" t="n">
-        <v>1.543208070516048</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1806953241279814</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2972417238615424</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2389685239947619</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6702814302628807</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3132513719416305</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N7" t="n">
-        <v>1.006178609207487</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3265871313649193</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P7" t="n">
-        <v>166.6429972220545</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q7" t="n">
-        <v>265.3719390363787</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_6</t>
+          <t>model_24_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9836160415068868</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7668723907240597</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7982345580297086</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4009057696887461</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6585849490025983</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G8" t="n">
-        <v>0.10955960588464</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H8" t="n">
-        <v>1.55892539668215</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2197054269208513</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J8" t="n">
-        <v>0.355271542605119</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2874885120866973</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6861062868830119</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3309978940788597</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N8" t="n">
-        <v>1.006898508839206</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3450891596898956</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P8" t="n">
-        <v>166.4225730636993</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q8" t="n">
-        <v>265.1515148780235</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_7</t>
+          <t>model_24_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9818488441815247</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7645178206860237</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7633177557052212</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3054697248460516</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6024028854852908</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1213768625365318</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H9" t="n">
-        <v>1.574670417368294</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2577268585718772</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4118664973817323</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3347966134705288</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7002130805560942</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3483918232917239</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N9" t="n">
-        <v>1.007642591923569</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3632235844797487</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P9" t="n">
-        <v>166.2177100143645</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q9" t="n">
-        <v>264.9466518286887</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_8</t>
+          <t>model_24_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9800748216600286</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7622058343279168</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7297745852112746</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2136375619618534</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5483777519301416</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1332397593063992</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H10" t="n">
-        <v>1.590130680790673</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2942525218454549</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4663242980380388</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3802884721793974</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7128207646464321</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M10" t="n">
-        <v>0.365020217668007</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N10" t="n">
-        <v>1.008389548774725</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3805598840301518</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P10" t="n">
-        <v>166.0312101442497</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q10" t="n">
-        <v>264.7601519585739</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_9</t>
+          <t>model_24_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.978330638083366</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7599695235008002</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6979057859969312</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1261972194076828</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4969819782635846</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1449031229147687</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H11" t="n">
-        <v>1.605084901588867</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3289549370284928</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5181776857246481</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4235662786374834</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7240936900727167</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3806614281940958</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N11" t="n">
-        <v>1.009123941859635</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3968669732701056</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P11" t="n">
-        <v>165.8633797553618</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q11" t="n">
-        <v>264.5923215696861</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_10</t>
+          <t>model_24_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9766421066170543</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7578313767240549</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6678875485618804</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04363312754157844</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4484996520546513</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1561943406049675</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H12" t="n">
-        <v>1.619382698930223</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3616422476336976</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J12" t="n">
-        <v>0.567139386233468</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4643908169335828</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7341908155079058</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3952142970654876</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00983490247703</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4120393878979441</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P12" t="n">
-        <v>165.7133085479106</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.4422503622348</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_11</t>
+          <t>model_24_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9750268913661214</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7558058919861756</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6398095196228853</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.03379433858207159</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4030806128435466</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1669952924253376</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H13" t="n">
-        <v>1.632927124698921</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3922168360017405</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6130549933917332</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5026359146967369</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7432388952526492</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M13" t="n">
-        <v>0.408650574972479</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N13" t="n">
-        <v>1.010514993109002</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4260476759723658</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P13" t="n">
-        <v>165.5795793120651</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q13" t="n">
-        <v>264.3085211263893</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9734962722495589</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7539013569327961</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6136934452274649</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1059968544426979</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3607699401524127</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1772305495056442</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H14" t="n">
-        <v>1.645662759370448</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4206550225341369</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6558721294814068</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5382636127194989</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7513469251565236</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4209875883035558</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N14" t="n">
-        <v>1.011159464315975</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4389099015020848</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P14" t="n">
-        <v>165.4606077087943</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q14" t="n">
-        <v>264.1895495231186</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_13</t>
+          <t>model_24_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9720567473828295</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7521214059289787</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5895141469604717</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1730110110370355</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3215387423509083</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1868566589178662</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H15" t="n">
-        <v>1.657565299928895</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4469842243861495</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6956124934927278</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5712982391965233</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7586201527893308</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4322691972808914</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N15" t="n">
-        <v>1.011765580049335</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4506717919297356</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P15" t="n">
-        <v>165.3548269718255</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.0837687861497</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_14</t>
+          <t>model_24_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9707112147311182</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7504662657544626</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5672138093450708</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2349655931418899</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2853037309636414</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1958542419554681</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H16" t="n">
-        <v>1.668633229897104</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4712673977007957</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7323524566608118</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6018099271808037</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7651433120478834</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4425542248758542</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N16" t="n">
-        <v>1.012332120113213</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4613946744423581</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P16" t="n">
-        <v>165.260769119798</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q16" t="n">
-        <v>263.9897109341222</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_15</t>
+          <t>model_24_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9694600810949183</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7489338271674997</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5467138696044387</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2920434335654361</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2519503020871444</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2042205783416775</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H17" t="n">
-        <v>1.678880653784356</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4935900906683579</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7662004414850133</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6298951788786458</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7709992986597133</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4519077099825555</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N17" t="n">
-        <v>1.012858913223192</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4711463567744351</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P17" t="n">
-        <v>165.1771092058092</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q17" t="n">
-        <v>263.9060510201334</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_16</t>
+          <t>model_24_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.968301632602778</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7475199691046437</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5279192099790206</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.3444810541086005</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2213332157061929</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2119671287427844</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H18" t="n">
-        <v>1.688335129160892</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5140558784490155</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7972967088138325</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K18" t="n">
-        <v>0.655676293631424</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7762517722727773</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4603988800407581</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N18" t="n">
-        <v>1.013346681009357</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4799990135211606</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P18" t="n">
-        <v>165.1026481388643</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q18" t="n">
-        <v>263.8315899531886</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_17</t>
+          <t>model_24_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9672329444446761</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C19" t="n">
-        <v>0.746219553695369</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5107309901371089</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3925368229064627</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1932975845576109</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2191134513768687</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H19" t="n">
-        <v>1.697031012990574</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5327723897678008</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8257944746878612</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6792836942447573</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7809693162721788</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4680955579546431</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N19" t="n">
-        <v>1.013796654970663</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4880233549481595</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P19" t="n">
-        <v>165.0363312809735</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q19" t="n">
-        <v>263.7652730952977</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_18</t>
+          <t>model_24_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9662500171332873</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C20" t="n">
-        <v>0.745026594454866</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4950397132048958</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.4364821373602801</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1676775572778942</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2256862908340896</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H20" t="n">
-        <v>1.70500833692489</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5498588574188507</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J20" t="n">
-        <v>0.851854681690962</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7008570358439313</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7852001285181359</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4750645122865836</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N20" t="n">
-        <v>1.014210519101774</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4952889920937349</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P20" t="n">
-        <v>164.9772186753175</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q20" t="n">
-        <v>263.7061604896418</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_19</t>
+          <t>model_24_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9653483099505835</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7439346351293117</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4807392844217273</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.476596472490364</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1443061394433035</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2317160109168098</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H21" t="n">
-        <v>1.712310273962882</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5654308095840778</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8756430625519152</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7205369360679965</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7890011192566132</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4813688927598145</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N21" t="n">
-        <v>1.014590185283965</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5018617630955778</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P21" t="n">
-        <v>164.9244854960057</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q21" t="n">
-        <v>263.6534273103299</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_20</t>
+          <t>model_24_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9645230346990628</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7429371216510046</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4677263551339016</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5131529497436162</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1230197578302491</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2372346303237723</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H22" t="n">
-        <v>1.71898065118545</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5796007841681969</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8973215822385834</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7384611317347342</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7924160712185778</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4870673776016746</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N22" t="n">
-        <v>1.014937669600395</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5078028442346458</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P22" t="n">
-        <v>164.8774112524181</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q22" t="n">
-        <v>263.6063530667423</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_21</t>
+          <t>model_24_6_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9637692291358971</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7420274379128607</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4559014398757092</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5464198685936776</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1036599086221232</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2422753315956162</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H23" t="n">
-        <v>1.725063710531125</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5924771123923661</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9170493462189513</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7547630909682458</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7954806995782137</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4922147210269276</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N23" t="n">
-        <v>1.015255061416464</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5131693207259818</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P23" t="n">
-        <v>164.8353609313759</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q23" t="n">
-        <v>263.5643027457002</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_22</t>
+          <t>model_24_6_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9630818046011432</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C24" t="n">
-        <v>0.741199020639095</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4451673184645528</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.5766596761907101</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08607100680785085</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2468721426248144</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H24" t="n">
-        <v>1.730603340655307</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6041656587768635</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9349819894485449</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7695738241127041</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7982364959835412</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4968622974475065</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N24" t="n">
-        <v>1.015544503325834</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O24" t="n">
-        <v>0.518014754096594</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P24" t="n">
-        <v>164.7977694351434</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q24" t="n">
-        <v>263.5267112494676</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_24_6_23</t>
+          <t>model_24_6_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9624559300031115</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7404456949181214</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4354328837952515</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.6041119502160299</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0701100462857801</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2510573689437401</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H25" t="n">
-        <v>1.735640833220204</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6147656312199486</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9512615849571292</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7830137494427669</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8007136825098116</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5010562532727639</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N25" t="n">
-        <v>1.015808029472374</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5223872553040181</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P25" t="n">
-        <v>164.7641476088754</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q25" t="n">
-        <v>263.4930894231996</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9618867617243418</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7397613765015998</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4266119953441196</v>
+        <v>0.9999462129865001</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.6290143339783656</v>
+        <v>0.9973598160625181</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0556380417412633</v>
+        <v>0.9989350996965913</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2548633998446513</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H26" t="n">
-        <v>1.740216873622481</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6243708294345294</v>
+        <v>0.0002427362558950616</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9660290586635496</v>
+        <v>0.009978911018255866</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7951998995297668</v>
+        <v>0.005110828744649665</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8029347378278239</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5048399744915723</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N26" t="n">
-        <v>1.016047679273961</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5263320573684938</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P26" t="n">
-        <v>164.7340551284778</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q26" t="n">
-        <v>263.4629969428021</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
   </sheetData>
